--- a/biology/Botanique/Chêne_de_Kleinbettingen/Chêne_de_Kleinbettingen.xlsx
+++ b/biology/Botanique/Chêne_de_Kleinbettingen/Chêne_de_Kleinbettingen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_de_Kleinbettingen</t>
+          <t>Chêne_de_Kleinbettingen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le chêne de Kleinbettingen est un chêne pédonculé (Quercus robur) implanté en haut d'un talus dans la rue de la Montagne à Kleinbettingen (Luxembourg). Depuis 2001, il est inscrit sur l'Inventaire supplémentaire des monuments nationaux du Luxembourg (Arrêté ministériel du 19 juillet 2001)[1].  
+Le chêne de Kleinbettingen est un chêne pédonculé (Quercus robur) implanté en haut d'un talus dans la rue de la Montagne à Kleinbettingen (Luxembourg). Depuis 2001, il est inscrit sur l'Inventaire supplémentaire des monuments nationaux du Luxembourg (Arrêté ministériel du 19 juillet 2001).  
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_de_Kleinbettingen</t>
+          <t>Chêne_de_Kleinbettingen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'âge du chêne est estimé à 200 ans au moins.
 Vers 2010, l'administration communale de Steinfort a fait ériger un panneau d'information bilingue (français et allemand) au pied de l'arbre.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_de_Kleinbettingen</t>
+          <t>Chêne_de_Kleinbettingen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Photos</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Le chêne en décembre 2007
